--- a/biology/Zoologie/Corydoras_weitzmani/Corydoras_weitzmani.xlsx
+++ b/biology/Zoologie/Corydoras_weitzmani/Corydoras_weitzmani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corydoras weitzmani est une espèce de poissons-chats d'eau douce de la famille des Callichthyidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Corydoras weitzmani a été décrite en 1971 par l'ichtyologiste néerlandais Han Nijssen (1935-2013)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Corydoras weitzmani a été décrite en 1971 par l'ichtyologiste néerlandais Han Nijssen (1935-2013),.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les cours d'eau d'Amérique du Sud, principalement dans l'ouest de la région de l'Amazone. L'espèce est menacée, à cause de la pollution de son milieu naturel résultant de l'activité humaine.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Corydoras weitzmani ressemble à Corydoras panda. Le mâle mesure 5,5 cm ; la femelle atteint 6 cm.
 </t>
@@ -604,7 +622,9 @@
           <t>Corydoras weitzmani et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut être maintenue en aquarium. Elle aime vivre en petit groupe de six individus ou plus. Un bac de 60 L pour six individus fera très bien l'affaire. Toute nourriture lui convient mais elle préfère la nourriture vivante pour la mettre en condition de ponte.
 </t>
@@ -635,9 +655,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, weitzmani, lui a été donnée en l'honneur de l'ichtyologiste américain Stanley Howard Weitzman (d) (1927-2017) qui s'est intéressé pendant longtemps au genre Corydoras[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, weitzmani, lui a été donnée en l'honneur de l'ichtyologiste américain Stanley Howard Weitzman (d) (1927-2017) qui s'est intéressé pendant longtemps au genre Corydoras.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) H. Nijssen, « Two new species and one new subspecies of the South American catfish genus Corydoras (Pisces, Siluriformes, Callichthyidae) », Beaufortia, NBC, vol. 19, no 250,‎ 1971, p. 89-98 (ISSN 0067-4745, lire en ligne)</t>
         </is>
